--- a/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -774,7 +774,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1088,11 +1088,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
@@ -1128,7 +1132,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>75</v>
+        <v>1052</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -1137,16 +1141,16 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12">
-        <v>101.92</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="E2" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="14">
+        <v>10000</v>
       </c>
       <c r="G2" s="12">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -1162,7 +1166,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>74</v>
+        <v>1051</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>41</v>
@@ -1171,32 +1175,32 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="14">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
         <v>10000</v>
-      </c>
-      <c r="F3" s="14">
-        <v>10000</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
-        <v>71</v>
+        <v>1040</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>41</v>
@@ -1237,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>41</v>
@@ -1141,16 +1141,16 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="14">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="14">
-        <v>10000</v>
+        <v>56</v>
+      </c>
+      <c r="E2" s="12">
+        <v>101.92</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
       </c>
       <c r="G2" s="12">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -1158,7 +1158,7 @@
       <c r="I2" s="12">
         <v>0</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="14">
         <v>0</v>
       </c>
       <c r="K2" s="22"/>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>41</v>
@@ -1175,16 +1175,16 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="12">
-        <v>101.92</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="E3" s="14">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="14">
+        <v>10000</v>
       </c>
       <c r="G3" s="12">
-        <v>101.92</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -1192,11 +1192,11 @@
       <c r="I3" s="12">
         <v>0</v>
       </c>
-      <c r="J3" s="14">
-        <v>10000</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
@@ -1229,8 +1229,6 @@
       <c r="J4" s="14">
         <v>10000</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3534-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-WaiveInterest-PREPAY-CASH-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -219,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -340,6 +345,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -387,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,9 +428,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,6 +480,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -942,10 +984,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -953,7 +995,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -990,20 +1032,21 @@
       <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -1030,8 +1073,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1061,21 +1105,22 @@
         <v>0</v>
       </c>
       <c r="K3" s="10">
-        <v>10101.92</v>
+        <v>101.92</v>
       </c>
       <c r="L3" s="5">
         <v>10000</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>101.92</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1088,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
